--- a/Project.xlsx
+++ b/Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisonemilien/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisonemilien/Project/Sport-Hub/Sport-Hub-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD121E06-A0A6-2149-A60E-2E70B2C0CB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D75EE8-7414-254B-9D0D-DF77F320A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{80F0D69A-15FA-7C41-9D09-CF82CF419620}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{80F0D69A-15FA-7C41-9D09-CF82CF419620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,6 +47,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
@@ -118,7 +119,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFBBE14-1848-C337-3879-0A4F2728E171}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -487,10 +488,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -501,7 +502,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1025" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Button1_Click" altText="Test">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!test" altText="Test">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisonemilien/Project/Sport-Hub/Sport-Hub-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D75EE8-7414-254B-9D0D-DF77F320A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2CC830-BAAF-6742-A440-1D4834E2B66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{80F0D69A-15FA-7C41-9D09-CF82CF419620}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{80F0D69A-15FA-7C41-9D09-CF82CF419620}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Playground" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -485,14 +485,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38686128-1221-C249-A6D5-88CF254E5331}">
   <sheetPr codeName="say_helloworld"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
